--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2174669.053363672</v>
+        <v>2172333.942161691</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>192.0872650464916</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>247.055298199944</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>185.5217629586822</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>259.658084792058</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>377.2368551623174</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795874984</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>162.8488061766263</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.253870317769</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306481</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740333</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>240.06330988836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1213.292347699871</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
         <v>844.329830759459</v>
@@ -4316,7 +4316,7 @@
         <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2243.612580475624</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1990.031519739804</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1990.031519739804</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1990.031519739804</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1990.031519739804</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1599.892187763993</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429757</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744474</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386097</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1087.683159487371</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1087.683159487371</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1087.683159487371</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>1087.683159487371</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829027</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C5" t="n">
-        <v>690.4032258886157</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>332.1375272818652</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,10 +4571,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2102.578639884742</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
         <v>349.2765195627319</v>
@@ -4708,22 +4708,22 @@
         <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1471.952376461744</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1217.267888255857</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>927.850718218896</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>699.8611673208786</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033371</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>380.4321398396067</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277341</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298237</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>198.027470314254</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976784</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -9170,13 +9170,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.19143052238942e-12</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-5.661529149205321e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557219056</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819096</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309552</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26430,31 +26430,31 @@
         <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744249</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744293</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="M4" t="n">
-        <v>8727.256391744297</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744293</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744284</v>
@@ -26470,7 +26470,7 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-747956.4098411424</v>
+        <v>-747956.4098411426</v>
       </c>
       <c r="C6" t="n">
-        <v>366795.3737347777</v>
+        <v>366795.3737347778</v>
       </c>
       <c r="D6" t="n">
-        <v>206779.9109867788</v>
+        <v>206779.9109867785</v>
       </c>
       <c r="E6" t="n">
-        <v>149919.0367522477</v>
+        <v>149884.2988268125</v>
       </c>
       <c r="F6" t="n">
-        <v>475331.4985596031</v>
+        <v>475296.7606341674</v>
       </c>
       <c r="G6" t="n">
-        <v>475331.4985596031</v>
+        <v>475296.760634167</v>
       </c>
       <c r="H6" t="n">
-        <v>475331.4985596031</v>
+        <v>475296.7606341672</v>
       </c>
       <c r="I6" t="n">
-        <v>475331.4985596031</v>
+        <v>475296.7606341675</v>
       </c>
       <c r="J6" t="n">
-        <v>307726.3207496206</v>
+        <v>307691.5828241847</v>
       </c>
       <c r="K6" t="n">
-        <v>475331.4985596031</v>
+        <v>475296.7606341674</v>
       </c>
       <c r="L6" t="n">
-        <v>427037.5285514126</v>
+        <v>427002.7906259764</v>
       </c>
       <c r="M6" t="n">
-        <v>390276.4706240914</v>
+        <v>390241.7326986555</v>
       </c>
       <c r="N6" t="n">
-        <v>475331.4985596032</v>
+        <v>475296.7606341675</v>
       </c>
       <c r="O6" t="n">
-        <v>475331.4985596032</v>
+        <v>475296.7606341671</v>
       </c>
       <c r="P6" t="n">
-        <v>475331.4985596032</v>
+        <v>475296.760634167</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>14.57091993374215</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>5.082345123883982</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>40.18789243035491</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>122.2722852802038</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>9.001083493736189</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460823779</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>123.3783479445743</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.429171302914</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483771</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391851</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35027,13 +35027,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>347.9240135433002</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
